--- a/biology/Botanique/Acer_shirasawanum/Acer_shirasawanum.xlsx
+++ b/biology/Botanique/Acer_shirasawanum/Acer_shirasawanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Acer shirasawanum est un érable japonais originaire des montagnes de Honshu et Shikoku appartenant à la section Palmata de la classification des érables.
 Il est souvent confondu avec Acer japonicum (auquel il est apparenté) et très semblable à Acer circinatum, Acer sieboldianum et Acer pseudosieboldianum, mais il est le seul à posséder des fleurs et des fruits dressés.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut atteindre 15 m de haut à l’état naturel. Il présente un port largement étalé à troncs multiples et une écorce lisse, gris-brun.
 Ses feuilles de 7 à 13 lobes sont circulaires et peuvent mesurer de 15 cm de long à 10 cm de large. Elles sont d'un vert tendre lumineux au printemps puis changent de couleur selon les variétés. Elles nécessitent une exposition claire pour prendre de belles couleurs en automne mais peuvent être abimées par une trop forte exposition au plein soleil.
@@ -549,7 +563,9 @@
           <t>Principaux cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il en existe une variété "tenuifolium" à lobes plus allongés et plusieurs cultivars :
 Aureum : avec ses feuilles vert pomme au printemps et jaune-rouge en automne ne dépassant pas les 10 cm, le "Golden full moon maple" (synonyme de l’Acer japonicum var.aureum) est le cultivar qui supporte le mieux le plein soleil. Il en existe un exemplaire de 8 m planté en 1850 à Boskoop en Hollande dans la maison de D.M. Van Gelderen (pépinière Esveld).
@@ -586,7 +602,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De croissance lente, il apprécie les terrains acides à légèrement calcaires en zone humide et ombragée. Il supporte des climats très rustiques (jusqu'en Zone USDA 5).
 Il est multiplié par greffe sur des espèces compatibles à croissance plus rapide (Acer palmatum ou Acer japonicum). On peut aussi le propager par semis mais les graines sont souvent hybrides.
@@ -618,7 +636,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
